--- a/data/trans_dic/P13A_1_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P13A_1_R-Provincia-trans_dic.xlsx
@@ -634,12 +634,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>80,16; 100,0</t>
+          <t>82,22; 100,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>86,02; 100,0</t>
+          <t>86,66; 100,0</t>
         </is>
       </c>
     </row>
@@ -684,12 +684,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>82,36; 100,0</t>
+          <t>80,65; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>86,15; 100,0</t>
+          <t>87,76; 100,0</t>
         </is>
       </c>
     </row>
@@ -834,12 +834,12 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>81,28; 100,0</t>
+          <t>83,46; 100,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>87,48; 100,0</t>
+          <t>88,54; 100,0</t>
         </is>
       </c>
     </row>
@@ -884,12 +884,12 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>70,68; 99,23</t>
+          <t>72,81; 98,97</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>76,33; 99,37</t>
+          <t>75,03; 99,38</t>
         </is>
       </c>
     </row>
@@ -934,12 +934,12 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>70,6; 100,0</t>
+          <t>75,41; 100,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>71,19; 100,0</t>
+          <t>75,23; 100,0</t>
         </is>
       </c>
     </row>
@@ -984,12 +984,12 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>88,46; 97,58</t>
+          <t>87,99; 97,7</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>90,23; 97,79</t>
+          <t>90,23; 98,14</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P13A_1_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P13A_1_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -634,12 +634,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>82,22; 100,0</t>
+          <t>80,16; 100,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>86,66; 100,0</t>
+          <t>86,02; 100,0</t>
         </is>
       </c>
     </row>
@@ -684,12 +684,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>80,65; 100,0</t>
+          <t>82,36; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>87,76; 100,0</t>
+          <t>86,15; 100,0</t>
         </is>
       </c>
     </row>
@@ -834,12 +834,12 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>83,46; 100,0</t>
+          <t>81,28; 100,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>88,54; 100,0</t>
+          <t>87,48; 100,0</t>
         </is>
       </c>
     </row>
@@ -884,12 +884,12 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>72,81; 98,97</t>
+          <t>70,68; 99,23</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>75,03; 99,38</t>
+          <t>76,33; 99,37</t>
         </is>
       </c>
     </row>
@@ -934,12 +934,12 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>75,41; 100,0</t>
+          <t>70,6; 100,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>75,23; 100,0</t>
+          <t>71,19; 100,0</t>
         </is>
       </c>
     </row>
@@ -984,12 +984,12 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>87,99; 97,7</t>
+          <t>88,46; 97,58</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>90,23; 98,14</t>
+          <t>90,23; 97,79</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P13A_1_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P13A_1_R-Provincia-trans_dic.xlsx
@@ -611,12 +611,12 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>94,24%</t>
+          <t>94,04%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>95,98%</t>
+          <t>95,92%</t>
         </is>
       </c>
     </row>
@@ -634,12 +634,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>80,16; 100,0</t>
+          <t>78,3; 100,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>86,02; 100,0</t>
+          <t>85,65; 100,0</t>
         </is>
       </c>
     </row>
@@ -661,12 +661,12 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>96,52%</t>
+          <t>96,6%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>97,35%</t>
+          <t>97,43%</t>
         </is>
       </c>
     </row>
@@ -684,12 +684,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>82,36; 100,0</t>
+          <t>82,87; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>86,15; 100,0</t>
+          <t>86,56; 100,0</t>
         </is>
       </c>
     </row>
@@ -761,12 +761,12 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>91,88%</t>
+          <t>91,84%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>94,38%</t>
+          <t>94,32%</t>
         </is>
       </c>
     </row>
@@ -784,12 +784,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>63,46; 100,0</t>
+          <t>63,11; 100,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>69,81; 100,0</t>
+          <t>69,38; 100,0</t>
         </is>
       </c>
     </row>
@@ -811,12 +811,12 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>96,35%</t>
+          <t>96,24%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>97,53%</t>
+          <t>97,47%</t>
         </is>
       </c>
     </row>
@@ -834,12 +834,12 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>81,28; 100,0</t>
+          <t>80,84; 100,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>87,48; 100,0</t>
+          <t>87,29; 100,0</t>
         </is>
       </c>
     </row>
@@ -861,12 +861,12 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>92,18%</t>
+          <t>92,15%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>93,29%</t>
+          <t>93,31%</t>
         </is>
       </c>
     </row>
@@ -884,12 +884,12 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>70,68; 99,23</t>
+          <t>70,84; 99,15</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>76,33; 99,37</t>
+          <t>76,56; 99,3</t>
         </is>
       </c>
     </row>
@@ -911,12 +911,12 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>92,81%</t>
+          <t>92,62%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>93,07%</t>
+          <t>92,91%</t>
         </is>
       </c>
     </row>
@@ -934,12 +934,12 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>70,6; 100,0</t>
+          <t>70,34; 100,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>71,19; 100,0</t>
+          <t>71,06; 100,0</t>
         </is>
       </c>
     </row>
@@ -961,12 +961,12 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>94,54%</t>
+          <t>94,51%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>95,57%</t>
+          <t>95,59%</t>
         </is>
       </c>
     </row>
@@ -984,12 +984,12 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>88,46; 97,58</t>
+          <t>88,58; 97,57</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>90,23; 97,79</t>
+          <t>90,4; 97,81</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P13A_1_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P13A_1_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +547,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +557,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>0,05%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>0,74%</t>
         </is>
       </c>
     </row>
@@ -579,24 +580,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>0,0; 0,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>81,26; 100</t>
+          <t>0,66; 2,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>82,92; 100</t>
+          <t>0,35; 1,36</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +607,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>94,04%</t>
+          <t>5,18%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>95,92%</t>
+          <t>3,84%</t>
         </is>
       </c>
     </row>
@@ -629,24 +630,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>82,92; 100</t>
+          <t>1,19; 4,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>78,3; 100,0</t>
+          <t>3,71; 6,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>85,65; 100,0</t>
+          <t>2,77; 5,05</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +657,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>96,6%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>97,43%</t>
+          <t>3,24%</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>76,75; 100</t>
+          <t>0,71; 3,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>82,87; 100,0</t>
+          <t>2,86; 6,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>86,56; 100,0</t>
+          <t>2,26; 4,59</t>
         </is>
       </c>
     </row>
@@ -706,17 +707,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>2,44%</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>55,59; 100</t>
+          <t>0,18; 1,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>91,36; 100</t>
+          <t>1,91; 6,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>92,39; 100</t>
+          <t>1,46; 4,2</t>
         </is>
       </c>
     </row>
@@ -756,17 +757,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>91,84%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>94,32%</t>
+          <t>1,62%</t>
         </is>
       </c>
     </row>
@@ -779,24 +780,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>43,07; 100</t>
+          <t>0,0; 4,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>63,11; 100,0</t>
+          <t>1,03; 3,52</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>69,38; 100,0</t>
+          <t>0,91; 2,99</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -806,17 +807,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>96,24%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>97,47%</t>
+          <t>3,51%</t>
         </is>
       </c>
     </row>
@@ -829,24 +830,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>82,92; 100</t>
+          <t>1,16; 4,16</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>80,84; 100,0</t>
+          <t>3,1; 7,35</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>87,29; 100,0</t>
+          <t>2,43; 4,99</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -856,17 +857,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>92,15%</t>
+          <t>4,73%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>93,31%</t>
+          <t>3,25%</t>
         </is>
       </c>
     </row>
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>79,25; 100</t>
+          <t>0,55; 2,6</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>70,84; 99,15</t>
+          <t>2,13; 6,73</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>76,56; 99,3</t>
+          <t>1,93; 4,27</t>
         </is>
       </c>
     </row>
@@ -906,17 +907,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>0,11%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>92,62%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>92,91%</t>
+          <t>1,46%</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>0,0; 0,59</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>70,34; 100,0</t>
+          <t>2,07; 6,02</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>71,06; 100,0</t>
+          <t>0,84; 2,63</t>
         </is>
       </c>
     </row>
@@ -956,17 +957,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>94,51%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>95,59%</t>
+          <t>2,55%</t>
         </is>
       </c>
     </row>
@@ -979,17 +980,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>95,56; 100</t>
+          <t>0,73; 1,5</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>88,58; 97,57</t>
+          <t>3,25; 4,75</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>90,4; 97,81</t>
+          <t>2,15; 2,98</t>
         </is>
       </c>
     </row>
@@ -1015,4 +1016,758 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con cefaleas crónicas (15 días o más al mes durante más de 3 meses)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>4300</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>4470</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 980</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1907; 8292</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2079; 8193</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>13049</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>26655</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>39704</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>6149; 23293</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>19092; 35931</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>28642; 52195</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>5367</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>15981</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>21349</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2229; 10673</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>9873; 22694</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>14933; 30244</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2073</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>17137</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>19210</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>577; 6044</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>9047; 31568</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>11485; 33013</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>4243</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>6267</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 7914</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2153; 7350</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>3507; 11597</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>6181</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>12270</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>18451</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>3135; 11197</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>7968; 18854</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>12795; 26269</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>7521</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>40034</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>47555</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>3407; 16008</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>17991; 56937</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>28222; 62465</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>1008</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>22873</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>23881</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>0; 5485</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>14767; 42932</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>13725; 43099</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>37393</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>143493</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>180887</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>25102; 51787</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>118711; 173404</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>152673; 211370</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>